--- a/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-mbr-04)商品参照（非会員）.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/111.業務フロー図(biz-mbr-04)商品参照（非会員）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1091D061-2040-45CF-B08C-020D643C5DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73978490-7D82-4ACC-A360-6DB111A95DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="525" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="975" windowWidth="24375" windowHeight="14925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>改訂履歴</t>
   </si>
@@ -228,6 +228,23 @@
     </rPh>
     <rPh sb="72" eb="73">
       <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル：商品在庫リストを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,6 +673,286 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="フローチャート: 磁気ディスク 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BF45D5D-97A9-4E3C-9DF4-44A6DEE16A33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="6934200"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート: 磁気ディスク 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECC7876-91CA-43ED-8A6D-5236E93FD82A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="1971675"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -684,7 +981,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5259"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s5262"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1539,159 +1836,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1876425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="フローチャート: 磁気ディスク 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBB7DFD-DCB2-4185-BD54-10E015C003F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8477250" y="3771900"/>
-          <a:ext cx="2000250" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>商品</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>情報マスタ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(product_masters)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>2124075</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1712,7 +1863,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="7858125" y="4200525"/>
-          <a:ext cx="619125" cy="0"/>
+          <a:ext cx="742950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2340,14 +2491,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:colOff>2009775</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2364,7 +2515,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477250" y="6334125"/>
+          <a:off x="8610600" y="6334125"/>
           <a:ext cx="2000250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2492,8 +2643,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2514,7 +2665,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="7858125" y="6762750"/>
-          <a:ext cx="619125" cy="0"/>
+          <a:ext cx="752475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3402,6 +3553,292 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="フローチャート: 磁気ディスク 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F31CF53-E980-4D1A-B78E-81566784AF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="4371975"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品在庫リスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_stock_lists)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フローチャート: 磁気ディスク 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBB7DFD-DCB2-4185-BD54-10E015C003F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="3771900"/>
+          <a:ext cx="2000250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>情報マスタ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(product_masters)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3435,7 +3872,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s8249"/>
+                  <a14:cameraTool cellRange="ヘッダー!$A$1:$E$2" spid="_x0000_s8251"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6812,7 +7249,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -6866,9 +7303,15 @@
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="9">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8">
@@ -7301,7 +7744,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
